--- a/Diagrama de entidad relacion.xlsx
+++ b/Diagrama de entidad relacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ALUMNO</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>FK_Curso</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Clave</t>
   </si>
 </sst>
 </file>
@@ -115,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -258,11 +267,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -278,6 +318,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,27 +792,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:AD22"/>
+  <dimension ref="D1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="13" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
     <col min="14" max="15" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="17" max="17" width="35" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
     <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="28" max="29" width="13.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:30" x14ac:dyDescent="0.25">
@@ -778,22 +832,22 @@
     </row>
     <row r="2" spans="4:30" x14ac:dyDescent="0.25">
       <c r="J2" s="5"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="4:30" x14ac:dyDescent="0.25">
       <c r="J3" s="5"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="4:30" x14ac:dyDescent="0.25">
@@ -838,27 +892,27 @@
     </row>
     <row r="13" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="11"/>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="15"/>
-      <c r="Z14" s="13" t="s">
+      <c r="U14" s="17"/>
+      <c r="V14" s="18"/>
+      <c r="Z14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="18"/>
     </row>
     <row r="15" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
@@ -947,15 +1001,15 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
       <c r="V18" s="10"/>
@@ -1015,14 +1069,63 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="10"/>
     </row>
+    <row r="27" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="K28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="K29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="K30" s="6"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="K28:O28"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
